--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N321"/>
+  <dimension ref="A1:N334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14514,6 +14514,626 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>413.17</v>
+      </c>
+      <c r="C322" t="n">
+        <v>406.3871428571428</v>
+      </c>
+      <c r="D322" t="n">
+        <v>403.78</v>
+      </c>
+      <c r="E322" t="n">
+        <v>404.9168421052632</v>
+      </c>
+      <c r="F322" t="n">
+        <v>415.2765217391304</v>
+      </c>
+      <c r="G322" t="n">
+        <v>411.8768421052632</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>386.3371428571429</v>
+      </c>
+      <c r="K322" t="n">
+        <v>386.819090909091</v>
+      </c>
+      <c r="L322" t="n">
+        <v>393.5290909090909</v>
+      </c>
+      <c r="M322" t="n">
+        <v>396.0769230769231</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>404.33</v>
+      </c>
+      <c r="C323" t="n">
+        <v>405.4714285714285</v>
+      </c>
+      <c r="D323" t="n">
+        <v>407.02</v>
+      </c>
+      <c r="E323" t="n">
+        <v>414.331052631579</v>
+      </c>
+      <c r="F323" t="n">
+        <v>421.4256521739131</v>
+      </c>
+      <c r="G323" t="n">
+        <v>406.221052631579</v>
+      </c>
+      <c r="H323" t="n">
+        <v>399.4014285714285</v>
+      </c>
+      <c r="I323" t="n">
+        <v>398.831052631579</v>
+      </c>
+      <c r="J323" t="n">
+        <v>394.5914285714285</v>
+      </c>
+      <c r="K323" t="n">
+        <v>393.9163636363636</v>
+      </c>
+      <c r="L323" t="n">
+        <v>399.0763636363636</v>
+      </c>
+      <c r="M323" t="n">
+        <v>404.4961538461538</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>390.86</v>
+      </c>
+      <c r="C324" t="n">
+        <v>382.9009523809524</v>
+      </c>
+      <c r="D324" t="n">
+        <v>390.25</v>
+      </c>
+      <c r="E324" t="n">
+        <v>395.091052631579</v>
+      </c>
+      <c r="F324" t="n">
+        <v>404.5378260869565</v>
+      </c>
+      <c r="G324" t="n">
+        <v>401.0110526315789</v>
+      </c>
+      <c r="H324" t="n">
+        <v>393.8109523809524</v>
+      </c>
+      <c r="I324" t="n">
+        <v>391.781052631579</v>
+      </c>
+      <c r="J324" t="n">
+        <v>389.1809523809524</v>
+      </c>
+      <c r="K324" t="n">
+        <v>383.0636363636364</v>
+      </c>
+      <c r="L324" t="n">
+        <v>391.6036363636364</v>
+      </c>
+      <c r="M324" t="n">
+        <v>387.2976923076923</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>407.28</v>
+      </c>
+      <c r="C325" t="n">
+        <v>401.0814285714285</v>
+      </c>
+      <c r="D325" t="n">
+        <v>402.98</v>
+      </c>
+      <c r="E325" t="n">
+        <v>407.8921052631579</v>
+      </c>
+      <c r="F325" t="n">
+        <v>415.0578260869565</v>
+      </c>
+      <c r="G325" t="n">
+        <v>406.6021052631579</v>
+      </c>
+      <c r="H325" t="n">
+        <v>396.7914285714286</v>
+      </c>
+      <c r="I325" t="n">
+        <v>395.2521052631579</v>
+      </c>
+      <c r="J325" t="n">
+        <v>398.3114285714286</v>
+      </c>
+      <c r="K325" t="n">
+        <v>400.1345454545455</v>
+      </c>
+      <c r="L325" t="n">
+        <v>402.4345454545455</v>
+      </c>
+      <c r="M325" t="n">
+        <v>401.4469230769231</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="C326" t="n">
+        <v>386.4428571428572</v>
+      </c>
+      <c r="D326" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="E326" t="n">
+        <v>397.8821052631579</v>
+      </c>
+      <c r="F326" t="n">
+        <v>410.5713043478261</v>
+      </c>
+      <c r="G326" t="n">
+        <v>401.8021052631579</v>
+      </c>
+      <c r="H326" t="n">
+        <v>391.0928571428572</v>
+      </c>
+      <c r="I326" t="n">
+        <v>374.9321052631579</v>
+      </c>
+      <c r="J326" t="n">
+        <v>377.0928571428572</v>
+      </c>
+      <c r="K326" t="n">
+        <v>378.2927272727272</v>
+      </c>
+      <c r="L326" t="n">
+        <v>381.4727272727272</v>
+      </c>
+      <c r="M326" t="n">
+        <v>393.1523076923077</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:32:53+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>407.0100000000001</v>
+      </c>
+      <c r="C327" t="n">
+        <v>412.9671428571429</v>
+      </c>
+      <c r="D327" t="n">
+        <v>410.89</v>
+      </c>
+      <c r="E327" t="n">
+        <v>417.1684210526316</v>
+      </c>
+      <c r="F327" t="n">
+        <v>418.4747826086957</v>
+      </c>
+      <c r="G327" t="n">
+        <v>410.3884210526315</v>
+      </c>
+      <c r="H327" t="n">
+        <v>403.5571428571428</v>
+      </c>
+      <c r="I327" t="n">
+        <v>401.4884210526316</v>
+      </c>
+      <c r="J327" t="n">
+        <v>393.2571428571428</v>
+      </c>
+      <c r="K327" t="n">
+        <v>392.0263636363636</v>
+      </c>
+      <c r="L327" t="n">
+        <v>394.7763636363636</v>
+      </c>
+      <c r="M327" t="n">
+        <v>393.6030769230769</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>417.98</v>
+      </c>
+      <c r="C328" t="n">
+        <v>412.4785714285715</v>
+      </c>
+      <c r="D328" t="n">
+        <v>421.77</v>
+      </c>
+      <c r="E328" t="n">
+        <v>424.9805263157895</v>
+      </c>
+      <c r="F328" t="n">
+        <v>423.6826086956522</v>
+      </c>
+      <c r="G328" t="n">
+        <v>421.0105263157895</v>
+      </c>
+      <c r="H328" t="n">
+        <v>413.3785714285714</v>
+      </c>
+      <c r="I328" t="n">
+        <v>408.5705263157895</v>
+      </c>
+      <c r="J328" t="n">
+        <v>397.9685714285715</v>
+      </c>
+      <c r="K328" t="n">
+        <v>392.4809090909091</v>
+      </c>
+      <c r="L328" t="n">
+        <v>399.8409090909091</v>
+      </c>
+      <c r="M328" t="n">
+        <v>397.29</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:32:48+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>411.41</v>
+      </c>
+      <c r="C329" t="n">
+        <v>400.6290476190476</v>
+      </c>
+      <c r="D329" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="E329" t="n">
+        <v>409.2978947368421</v>
+      </c>
+      <c r="F329" t="n">
+        <v>419.36</v>
+      </c>
+      <c r="G329" t="n">
+        <v>409.6278947368421</v>
+      </c>
+      <c r="H329" t="n">
+        <v>402.7190476190476</v>
+      </c>
+      <c r="I329" t="n">
+        <v>396.0678947368421</v>
+      </c>
+      <c r="J329" t="n">
+        <v>392.3490476190476</v>
+      </c>
+      <c r="K329" t="n">
+        <v>388.6081818181818</v>
+      </c>
+      <c r="L329" t="n">
+        <v>391.7481818181818</v>
+      </c>
+      <c r="M329" t="n">
+        <v>395.1815384615385</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>414.43</v>
+      </c>
+      <c r="C330" t="n">
+        <v>408.6214285714286</v>
+      </c>
+      <c r="D330" t="n">
+        <v>412.3</v>
+      </c>
+      <c r="E330" t="n">
+        <v>412.56</v>
+      </c>
+      <c r="F330" t="n">
+        <v>418.7834782608696</v>
+      </c>
+      <c r="G330" t="n">
+        <v>410.78</v>
+      </c>
+      <c r="H330" t="n">
+        <v>412.0114285714286</v>
+      </c>
+      <c r="I330" t="n">
+        <v>398.24</v>
+      </c>
+      <c r="J330" t="n">
+        <v>388.4914285714286</v>
+      </c>
+      <c r="K330" t="n">
+        <v>393.2681818181818</v>
+      </c>
+      <c r="L330" t="n">
+        <v>397.9381818181818</v>
+      </c>
+      <c r="M330" t="n">
+        <v>403.3253846153846</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:32:54+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>404.55</v>
+      </c>
+      <c r="C331" t="n">
+        <v>388.9785714285715</v>
+      </c>
+      <c r="D331" t="n">
+        <v>392.01</v>
+      </c>
+      <c r="E331" t="n">
+        <v>409.62</v>
+      </c>
+      <c r="F331" t="n">
+        <v>416.1065217391304</v>
+      </c>
+      <c r="G331" t="n">
+        <v>404</v>
+      </c>
+      <c r="H331" t="n">
+        <v>392.3085714285714</v>
+      </c>
+      <c r="I331" t="n">
+        <v>387.95</v>
+      </c>
+      <c r="J331" t="n">
+        <v>380.4685714285715</v>
+      </c>
+      <c r="K331" t="n">
+        <v>374.1518181818182</v>
+      </c>
+      <c r="L331" t="n">
+        <v>372.0818181818182</v>
+      </c>
+      <c r="M331" t="n">
+        <v>371.8946153846153</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>435.94</v>
+      </c>
+      <c r="C332" t="n">
+        <v>413.3666666666667</v>
+      </c>
+      <c r="D332" t="n">
+        <v>397.97</v>
+      </c>
+      <c r="E332" t="n">
+        <v>404.3347368421053</v>
+      </c>
+      <c r="F332" t="n">
+        <v>414.3643478260869</v>
+      </c>
+      <c r="G332" t="n">
+        <v>406.9947368421053</v>
+      </c>
+      <c r="H332" t="n">
+        <v>397.3066666666667</v>
+      </c>
+      <c r="I332" t="n">
+        <v>396.8947368421053</v>
+      </c>
+      <c r="J332" t="n">
+        <v>388.0166666666667</v>
+      </c>
+      <c r="K332" t="n">
+        <v>384.31</v>
+      </c>
+      <c r="L332" t="n">
+        <v>391.16</v>
+      </c>
+      <c r="M332" t="n">
+        <v>398.9969230769231</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:32:55+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>413.16</v>
+      </c>
+      <c r="C333" t="n">
+        <v>411.3357142857143</v>
+      </c>
+      <c r="D333" t="n">
+        <v>419.45</v>
+      </c>
+      <c r="E333" t="n">
+        <v>415.1978947368421</v>
+      </c>
+      <c r="F333" t="n">
+        <v>417.7652173913044</v>
+      </c>
+      <c r="G333" t="n">
+        <v>404.3478947368421</v>
+      </c>
+      <c r="H333" t="n">
+        <v>402.3957142857143</v>
+      </c>
+      <c r="I333" t="n">
+        <v>399.1078947368421</v>
+      </c>
+      <c r="J333" t="n">
+        <v>388.5257142857143</v>
+      </c>
+      <c r="K333" t="n">
+        <v>386.7090909090909</v>
+      </c>
+      <c r="L333" t="n">
+        <v>394.4990909090909</v>
+      </c>
+      <c r="M333" t="n">
+        <v>388.1923076923077</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>421.14</v>
+      </c>
+      <c r="C334" t="n">
+        <v>425.8</v>
+      </c>
+      <c r="D334" t="n">
+        <v>413.94</v>
+      </c>
+      <c r="E334" t="n">
+        <v>427.2926315789474</v>
+      </c>
+      <c r="F334" t="n">
+        <v>432.6904347826087</v>
+      </c>
+      <c r="G334" t="n">
+        <v>421.4126315789474</v>
+      </c>
+      <c r="H334" t="n">
+        <v>412.06</v>
+      </c>
+      <c r="I334" t="n">
+        <v>404.1526315789474</v>
+      </c>
+      <c r="J334" t="n">
+        <v>395.43</v>
+      </c>
+      <c r="K334" t="n">
+        <v>393.0154545454546</v>
+      </c>
+      <c r="L334" t="n">
+        <v>396.6554545454546</v>
+      </c>
+      <c r="M334" t="n">
+        <v>394.2869230769231</v>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14525,7 +15145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17893,6 +18513,136 @@
       </c>
       <c r="B336" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -18061,28 +18811,28 @@
         <v>0.1467</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6498838821097852</v>
+        <v>0.8699803477965835</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04695645573388729</v>
+        <v>0.08328714613643573</v>
       </c>
       <c r="M2" t="n">
-        <v>17.39684072848117</v>
+        <v>17.66315667835683</v>
       </c>
       <c r="N2" t="n">
-        <v>456.4959875513204</v>
+        <v>466.3420475501777</v>
       </c>
       <c r="O2" t="n">
-        <v>21.36576672041798</v>
+        <v>21.59495421505166</v>
       </c>
       <c r="P2" t="n">
-        <v>369.1451882729689</v>
+        <v>367.0374944614285</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18138,28 +18888,28 @@
         <v>0.1523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.640649005625362</v>
+        <v>0.8807283253199725</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04951954984707929</v>
+        <v>0.09026200705493381</v>
       </c>
       <c r="M3" t="n">
-        <v>16.86629214297039</v>
+        <v>17.18363061597968</v>
       </c>
       <c r="N3" t="n">
-        <v>418.2213382998423</v>
+        <v>436.1824418469478</v>
       </c>
       <c r="O3" t="n">
-        <v>20.45046058894132</v>
+        <v>20.88498125081628</v>
       </c>
       <c r="P3" t="n">
-        <v>360.4508763894959</v>
+        <v>358.1429516588976</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18215,28 +18965,28 @@
         <v>0.1374</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9126534967367993</v>
+        <v>1.136684382109876</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09832580952059145</v>
+        <v>0.1470643215587129</v>
       </c>
       <c r="M4" t="n">
-        <v>16.81107515109632</v>
+        <v>17.04193752165553</v>
       </c>
       <c r="N4" t="n">
-        <v>402.2452223700784</v>
+        <v>415.078152117085</v>
       </c>
       <c r="O4" t="n">
-        <v>20.0560520135464</v>
+        <v>20.37346686543763</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8787599691203</v>
+        <v>353.7186875760065</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18292,28 +19042,28 @@
         <v>0.1241</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9505443783432288</v>
+        <v>1.154093398326458</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1066915186478625</v>
+        <v>0.1533975433368362</v>
       </c>
       <c r="M5" t="n">
-        <v>16.66529011448033</v>
+        <v>16.81449839135058</v>
       </c>
       <c r="N5" t="n">
-        <v>397.7374371662278</v>
+        <v>405.7713199191408</v>
       </c>
       <c r="O5" t="n">
-        <v>19.94335571477949</v>
+        <v>20.1437662794012</v>
       </c>
       <c r="P5" t="n">
-        <v>362.9380657158076</v>
+        <v>360.9658698668651</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18369,28 +19119,28 @@
         <v>0.1753</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9588270752282122</v>
+        <v>1.154488302264585</v>
       </c>
       <c r="J6" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>0.110868392073489</v>
+        <v>0.1578232193941749</v>
       </c>
       <c r="M6" t="n">
-        <v>16.93485320287867</v>
+        <v>17.10815501548773</v>
       </c>
       <c r="N6" t="n">
-        <v>394.4027955276134</v>
+        <v>399.4851897301738</v>
       </c>
       <c r="O6" t="n">
-        <v>19.85957692217066</v>
+        <v>19.98712559949964</v>
       </c>
       <c r="P6" t="n">
-        <v>370.128110087633</v>
+        <v>368.2605838351865</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18446,28 +19196,28 @@
         <v>0.1309</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9082113431890604</v>
+        <v>1.124451365334394</v>
       </c>
       <c r="J7" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09561471139420752</v>
+        <v>0.1426206483410721</v>
       </c>
       <c r="M7" t="n">
-        <v>17.41148533824266</v>
+        <v>17.68612114613099</v>
       </c>
       <c r="N7" t="n">
-        <v>420.8904182155298</v>
+        <v>429.7550833152097</v>
       </c>
       <c r="O7" t="n">
-        <v>20.51561401020037</v>
+        <v>20.7305350465252</v>
       </c>
       <c r="P7" t="n">
-        <v>360.220054604536</v>
+        <v>358.155040213766</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -18523,28 +19273,28 @@
         <v>0.153</v>
       </c>
       <c r="I8" t="n">
-        <v>1.059130691274522</v>
+        <v>1.252545471967192</v>
       </c>
       <c r="J8" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1251051968992618</v>
+        <v>0.172290646772183</v>
       </c>
       <c r="M8" t="n">
-        <v>17.02623430863356</v>
+        <v>17.15012630924749</v>
       </c>
       <c r="N8" t="n">
-        <v>411.2688059395454</v>
+        <v>415.328280305263</v>
       </c>
       <c r="O8" t="n">
-        <v>20.27976345866848</v>
+        <v>20.37960451788167</v>
       </c>
       <c r="P8" t="n">
-        <v>351.9276267527291</v>
+        <v>350.0578856276055</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -18600,28 +19350,28 @@
         <v>0.1297</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8694324514742546</v>
+        <v>1.066230985962858</v>
       </c>
       <c r="J9" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K9" t="n">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08529523152415597</v>
+        <v>0.1267679288285163</v>
       </c>
       <c r="M9" t="n">
-        <v>17.5732826549902</v>
+        <v>17.73905605131224</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6713101934619</v>
+        <v>442.7000394682996</v>
       </c>
       <c r="O9" t="n">
-        <v>20.8966817986364</v>
+        <v>21.04043819572918</v>
       </c>
       <c r="P9" t="n">
-        <v>349.9784966315045</v>
+        <v>348.1176178205141</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -18677,28 +19427,28 @@
         <v>0.1535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9627244484531851</v>
+        <v>1.168654508647557</v>
       </c>
       <c r="J10" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K10" t="n">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1025069992008274</v>
+        <v>0.149175997101023</v>
       </c>
       <c r="M10" t="n">
-        <v>17.80045014464786</v>
+        <v>17.88926129000539</v>
       </c>
       <c r="N10" t="n">
-        <v>441.6641566515078</v>
+        <v>445.8130782734582</v>
       </c>
       <c r="O10" t="n">
-        <v>21.01580730430092</v>
+        <v>21.11428611801636</v>
       </c>
       <c r="P10" t="n">
-        <v>341.7555799481528</v>
+        <v>339.8195489110915</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -18754,28 +19504,28 @@
         <v>0.1799</v>
       </c>
       <c r="I11" t="n">
-        <v>1.020348583506672</v>
+        <v>1.21095026540203</v>
       </c>
       <c r="J11" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K11" t="n">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1171705009303671</v>
+        <v>0.162963647061575</v>
       </c>
       <c r="M11" t="n">
-        <v>17.35046749360392</v>
+        <v>17.47767020322708</v>
       </c>
       <c r="N11" t="n">
-        <v>432.5438220317064</v>
+        <v>435.0497939449553</v>
       </c>
       <c r="O11" t="n">
-        <v>20.79768790110349</v>
+        <v>20.85784729891738</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8787578308093</v>
+        <v>338.0820658940991</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -18831,28 +19581,28 @@
         <v>0.181</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8418322901143664</v>
+        <v>1.000944880068436</v>
       </c>
       <c r="J12" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K12" t="n">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09853628555145977</v>
+        <v>0.1391271001572432</v>
       </c>
       <c r="M12" t="n">
-        <v>16.19458939983726</v>
+        <v>16.26201029498642</v>
       </c>
       <c r="N12" t="n">
-        <v>362.7112399831946</v>
+        <v>363.5828956391676</v>
       </c>
       <c r="O12" t="n">
-        <v>19.0449793904639</v>
+        <v>19.06784979065987</v>
       </c>
       <c r="P12" t="n">
-        <v>352.3105980899306</v>
+        <v>350.8383967511843</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -18908,28 +19658,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3094993284931387</v>
+        <v>0.4584608526609662</v>
       </c>
       <c r="J13" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K13" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01932199429391168</v>
+        <v>0.04276225586567894</v>
       </c>
       <c r="M13" t="n">
-        <v>13.59746941837517</v>
+        <v>13.75526657717709</v>
       </c>
       <c r="N13" t="n">
-        <v>271.5631327164347</v>
+        <v>275.3348642475112</v>
       </c>
       <c r="O13" t="n">
-        <v>16.47917269514567</v>
+        <v>16.59321741699033</v>
       </c>
       <c r="P13" t="n">
-        <v>368.2398628360555</v>
+        <v>366.8590811323949</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -18966,7 +19716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N321"/>
+  <dimension ref="A1:N334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39378,6 +40128,934 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:33+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-44.40595139129568,167.9181650949549</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-44.40556342226114,167.91888111010942</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-44.40514680847504,167.91956332021618</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-44.40471610250933,167.92019575744166</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-44.404277861876665,167.92060189071492</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-44.40379788079827,167.92094627206575</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-44.4021789749599,167.9222953463867</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-44.40157610639736,167.92258368337622</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-44.40097394427835,167.92278781658212</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-44.400370943597196,167.92293372604206</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-44.406012025137024,167.91823666041932</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-44.4055697031454,167.91888852340884</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-44.405124585414576,167.91953709031512</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-44.40465334357679,167.9201166518851</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-44.404244714323944,167.9205402343879</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-44.4038215967557,167.92100896348023</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-44.403270633281416,167.92147040646532</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-44.40271151692829,167.92184898503456</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-44.402150709390924,167.92219970537155</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-44.40155255131627,167.92250102662106</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-44.40095841295806,167.92272175687964</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-44.40035185503998,167.92283162758386</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-25 22:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-44.406104416221595,167.91834570898286</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-44.40572451391063,167.9190712465097</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-44.40523961027348,167.91967285455323</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-44.40478160514273,167.92027832158627</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-44.40433574990444,167.92070956603396</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-44.4038434433922,167.9210667136028</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-44.40329407513666,167.92153237356052</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-44.40273876278072,167.92192875054945</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-44.402169236767385,167.92226239563473</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-44.401588570322005,167.92262742044295</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-44.40097933518034,167.9228107458683</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-44.40039084827244,167.92304019023308</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-44.40599179099741,167.91821277826273</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-44.405599814149625,167.91892406332008</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-44.40515229564968,167.919569796738</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-44.40469626820767,167.92017075693641</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-44.40427904077867,167.92060408354183</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-44.403819998920014,167.92100473971308</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-44.403281577476875,167.92149933675262</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-44.40272534834931,167.92188947815666</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-44.40213797078147,167.92215660239177</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>-44.40153191379603,167.92242860805456</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>-44.40094901066272,167.92268176598685</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>-44.40035876843905,167.9228686050342</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-44.406025948966175,167.91825309459082</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-44.40570022002304,167.91904257235836</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-44.405241119245076,167.9196746356022</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-44.404762998877445,167.9202548689103</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-44.40430322583948,167.9206490692097</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-44.40384012634228,167.9210579451956</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-44.403305472579255,167.92156250204428</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-44.402803878019384,167.92211938419436</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-44.40221063054556,167.92240245848163</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-44.40160440440128,167.92268298380415</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-44.40100769970216,167.9229313899314</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>-44.40037757443022,167.92296919233067</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10 22:32:53+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-44.4059936429358,167.91821496408656</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-44.40551829002904,167.91882784079996</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-44.405098041196645,167.91950576018135</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-44.40463442852272,167.92009281013054</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-44.4042606213093,167.9205698222664</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-44.40380412207514,167.92096277041534</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-44.40325320761613,167.92142434288397</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-44.40270124708942,167.92181891890445</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-44.402155278458295,167.92221516550822</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-44.40155882402757,167.92252303806458</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-44.400970452152514,167.92277296343036</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-44.40037655242457,167.92296372593208</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-44.4059183993364,167.9181261549845</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-44.405521641142116,167.91883179609545</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-44.40502341555221,167.9194176797494</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-44.404582349823414,167.92002716688518</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-44.4042325479481,167.92051760427117</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-44.403759581202436,167.92084503015226</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-44.403212024511916,167.92131547839776</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-44.402673877088226,167.92173879025074</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-44.40213914484749,167.92216057501577</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-44.40155731543936,167.92251774430667</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-44.4009562723717,167.92271265229238</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-44.40036819324589,167.92291901527744</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18 22:32:48+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-44.405963463194766,167.91817934327094</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-44.40560291702944,167.9189277256408</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-44.405183023821756,167.91960606528238</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-44.40468689664761,167.92015894439152</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-44.404255849448795,167.92056094633708</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-44.40380731112841,167.92097120044335</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-44.40325672190319,167.92143363266086</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-44.40272219560012,167.921880248105</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-44.40215838809723,167.92222568745137</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-44.40157016860338,167.92256284713352</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-44.40097893048105,167.92280902454777</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-44.40037297365872,167.92294458421048</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-44.40594274891244,167.9181548944595</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-44.40554809729371,167.9188630221281</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-44.40508837004566,167.91949434533342</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-44.40466515013311,167.92013153364098</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-44.404258957251926,167.92056672702566</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-44.4038024800987,167.92095842997225</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-44.403217757205844,167.92133063232467</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-44.402713801147726,167.9218556723532</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-44.402171597937475,167.9222703850323</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-44.40155470256404,167.92250857551863</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-44.40096159965608,167.92273531091578</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-44.400354509479655,167.92284582528188</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26 22:32:54+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-44.406010516150474,167.91823487937657</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-44.40568282758157,167.91902204402436</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-44.40522753849993,167.91965860616472</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-44.40468474936375,167.92015623781117</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-44.40427338767366,167.92059356843626</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-44.40383091010444,167.92103358268045</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-44.403300374880295,167.9215490265664</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-44.402753568474246,167.921972096098</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-44.40219907096016,167.92236334459307</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-44.40161814756466,167.92273121003262</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-44.4010339922623,167.9230432218086</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-44.40042577060321,167.92322698083936</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:32:49+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-44.405795210963525,167.9179807578908</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-44.405515549693824,167.91882460640178</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-44.4051866590736,167.91961035598322</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-44.40471998305672,167.9202006487507</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-44.404282779046234,167.9206110369399</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-44.40381835253116,167.92100038759963</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-44.403279416992206,167.92149362564592</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-44.40271900013555,167.92187089300208</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-44.40217322368756,167.92227588601986</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-44.40158443378524,167.92261290494366</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-44.4009805772761,167.92281602891507</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-44.400364323217715,167.9228983157324</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:32:55+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-44.405951459886026,167.9181651759112</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-44.405529480002606,167.91884104825036</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-44.405039328378344,167.91943646158757</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-44.40464756485456,167.92010936800855</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-44.40426444629722,167.9205769369613</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-44.40382945130773,167.92102972644975</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-44.40325807769897,167.9214372166149</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-44.402710447026635,167.92184585277332</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-44.40217148053123,167.92226998776943</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-44.40157647147502,167.92258496446647</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-44.40097122846344,167.92277626533345</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-44.40038881996376,167.9230293413856</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:32:47+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-44.405896724779,167.91810057282385</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-44.405430269376886,167.91872395084584</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-44.405077121329796,167.9194810684937</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-44.404566936374714,167.9200077388419</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-44.404183990216275,167.9204272844364</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-44.40375789508253,167.92084057303765</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-44.403217553536486,167.92133009394055</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-44.402690950800604,167.92178877537222</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-44.40214783782401,167.9221899889915</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-44.40155554133934,167.92251151884773</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-44.4009651910527,167.9227505862731</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-44.40037500197523,167.9229554330514</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -18656,7 +18656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18747,35 +18747,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18834,27 +18839,28 @@
       <c r="P2" t="n">
         <v>367.0374944614285</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (167.92151012781997 -44.40878529627402, 167.91433937145956 -44.40270980977614)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>167.92151012782</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-44.40878529627402</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>167.9143393714596</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-44.40270980977614</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>167.9179247496398</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-44.40574755302508</v>
       </c>
     </row>
@@ -18911,27 +18917,28 @@
       <c r="P3" t="n">
         <v>358.1429516588976</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (167.92217123169684 -44.40835079102963, 167.9150004579271 -44.40227531727737)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>167.9221712316968</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-44.40835079102963</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>167.9150004579271</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-44.40227531727737</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>167.918585844812</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-44.4053130541535</v>
       </c>
     </row>
@@ -18988,27 +18995,28 @@
       <c r="P4" t="n">
         <v>353.7186875760065</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (167.9228323355733 -44.407916282557764, 167.9156615443957 -44.40184082155125)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>167.9228323355733</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-44.40791628255776</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>167.9156615443957</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-44.40184082155125</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>167.9192469399845</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-44.40487855205451</v>
       </c>
     </row>
@@ -19065,27 +19073,28 @@
       <c r="P5" t="n">
         <v>360.9658698668651</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (167.92359834500365 -44.40741539681575, 167.91615521415414 -44.401510277910255)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>167.9235983450037</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-44.40741539681575</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>167.9161552141541</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-44.40151027791025</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>167.9198767795789</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-44.404462837363</v>
       </c>
     </row>
@@ -19142,27 +19151,28 @@
       <c r="P6" t="n">
         <v>368.2605838351865</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (167.9247659654538 -44.40651638476149, 167.9158823399102 -44.40174034796091)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>167.9247659654538</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-44.40651638476149</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>167.9158823399102</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-44.40174034796091</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>167.920324152682</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-44.4041283663612</v>
       </c>
     </row>
@@ -19219,27 +19229,28 @@
       <c r="P7" t="n">
         <v>358.155040213766</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (167.92551184641113 -44.40552488576881, 167.91568963192177 -44.40180912478673)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>167.9255118464111</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-44.40552488576881</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>167.9156896319218</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-44.40180912478673</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>167.9206007391664</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-44.40366700527777</v>
       </c>
     </row>
@@ -19296,27 +19307,28 @@
       <c r="P8" t="n">
         <v>350.0578856276055</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (167.92589766371088 -44.40494531479451, 167.91607549283466 -44.40122956725431)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>167.9258976637109</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-44.40494531479451</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>167.9160754928347</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-44.40122956725431</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>167.9209865782728</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-44.40308744102441</v>
       </c>
     </row>
@@ -19373,27 +19385,28 @@
       <c r="P9" t="n">
         <v>348.1176178205141</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (167.92636158520952 -44.40425278067543, 167.91633534697255 -44.40082800752093)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>167.9263615852095</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-44.40425278067543</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>167.9163353469725</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-44.40082800752093</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>167.921348466091</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-44.40254039409818</v>
       </c>
     </row>
@@ -19450,27 +19463,28 @@
       <c r="P10" t="n">
         <v>339.8195489110915</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (167.9267718798117 -44.40350184355396, 167.91650362746012 -44.40046711112186)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>167.9267718798117</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-44.40350184355396</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>167.9165036274601</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-44.40046711112186</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>167.9216377536359</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-44.40198447733791</v>
       </c>
     </row>
@@ -19527,27 +19541,28 @@
       <c r="P11" t="n">
         <v>338.0820658940991</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (167.92708879059992 -44.40285983088125, 167.91676773089623 -44.399918518626414)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>167.9270887905999</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-44.40285983088125</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>167.9167677308962</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-44.39991851862641</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>167.9219282607481</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-44.40138917475383</v>
       </c>
     </row>
@@ -19604,27 +19619,28 @@
       <c r="P12" t="n">
         <v>350.8383967511843</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (167.92747425554057 -44.40207565790447, 167.91692031518517 -44.3995942555365)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>167.9274742555406</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-44.40207565790447</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>167.9169203151852</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-44.3995942555365</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>167.9221972853629</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-44.40083495672049</v>
       </c>
     </row>
@@ -19681,27 +19697,28 @@
       <c r="P13" t="n">
         <v>366.8590811323949</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (167.92773696182783 -44.40126885153244, 167.9169891174392 -44.39925935547685)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>167.9277369618278</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-44.40126885153244</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>167.9169891174392</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-44.39925935547685</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>167.9223630396335</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-44.40026410350465</v>
       </c>
     </row>

--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N334"/>
+  <dimension ref="A1:N337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15134,6 +15134,150 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>426.23</v>
+      </c>
+      <c r="C335" t="n">
+        <v>422.38</v>
+      </c>
+      <c r="D335" t="n">
+        <v>416.49</v>
+      </c>
+      <c r="E335" t="n">
+        <v>421.83</v>
+      </c>
+      <c r="F335" t="n">
+        <v>429.54</v>
+      </c>
+      <c r="G335" t="n">
+        <v>419.34</v>
+      </c>
+      <c r="H335" t="n">
+        <v>405.2</v>
+      </c>
+      <c r="I335" t="n">
+        <v>399</v>
+      </c>
+      <c r="J335" t="n">
+        <v>390.85</v>
+      </c>
+      <c r="K335" t="n">
+        <v>392.38</v>
+      </c>
+      <c r="L335" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>400.72</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>422.05</v>
+      </c>
+      <c r="C336" t="n">
+        <v>407.6357142857143</v>
+      </c>
+      <c r="D336" t="n">
+        <v>404.05</v>
+      </c>
+      <c r="E336" t="n">
+        <v>416.4357894736842</v>
+      </c>
+      <c r="F336" t="n">
+        <v>420.5608695652174</v>
+      </c>
+      <c r="G336" t="n">
+        <v>399.6057894736842</v>
+      </c>
+      <c r="H336" t="n">
+        <v>395.3157142857143</v>
+      </c>
+      <c r="I336" t="n">
+        <v>389.3557894736842</v>
+      </c>
+      <c r="J336" t="n">
+        <v>380.1457142857143</v>
+      </c>
+      <c r="K336" t="n">
+        <v>375.5327272727272</v>
+      </c>
+      <c r="L336" t="n">
+        <v>388.5427272727272</v>
+      </c>
+      <c r="M336" t="n">
+        <v>387.4807692307692</v>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:32:34+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>418.83</v>
+      </c>
+      <c r="C337" t="n">
+        <v>415.96</v>
+      </c>
+      <c r="D337" t="n">
+        <v>405.58</v>
+      </c>
+      <c r="E337" t="n">
+        <v>418.7005263157895</v>
+      </c>
+      <c r="F337" t="n">
+        <v>427.2860869565217</v>
+      </c>
+      <c r="G337" t="n">
+        <v>417.1905263157895</v>
+      </c>
+      <c r="H337" t="n">
+        <v>406.39</v>
+      </c>
+      <c r="I337" t="n">
+        <v>396.4805263157895</v>
+      </c>
+      <c r="J337" t="n">
+        <v>377.75</v>
+      </c>
+      <c r="K337" t="n">
+        <v>373.6090909090909</v>
+      </c>
+      <c r="L337" t="n">
+        <v>384.5590909090909</v>
+      </c>
+      <c r="M337" t="n">
+        <v>390.5853846153847</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15145,7 +15289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18643,6 +18787,36 @@
       </c>
       <c r="B349" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -18816,28 +18990,28 @@
         <v>0.1467</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8699803477965835</v>
+        <v>0.9351269292504462</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08328714613643573</v>
+        <v>0.09466903626970424</v>
       </c>
       <c r="M2" t="n">
-        <v>17.66315667835683</v>
+        <v>17.80719744898673</v>
       </c>
       <c r="N2" t="n">
-        <v>466.3420475501777</v>
+        <v>472.8601357073176</v>
       </c>
       <c r="O2" t="n">
-        <v>21.59495421505166</v>
+        <v>21.7453474496803</v>
       </c>
       <c r="P2" t="n">
-        <v>367.0374944614285</v>
+        <v>366.4080288459151</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18894,28 +19068,28 @@
         <v>0.1523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8807283253199725</v>
+        <v>0.949179058962306</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09026200705493381</v>
+        <v>0.1025188288114428</v>
       </c>
       <c r="M3" t="n">
-        <v>17.18363061597968</v>
+        <v>17.33165739245294</v>
       </c>
       <c r="N3" t="n">
-        <v>436.1824418469478</v>
+        <v>444.4560951991197</v>
       </c>
       <c r="O3" t="n">
-        <v>20.88498125081628</v>
+        <v>21.08212738788758</v>
       </c>
       <c r="P3" t="n">
-        <v>358.1429516588976</v>
+        <v>357.4789981657473</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18972,28 +19146,28 @@
         <v>0.1374</v>
       </c>
       <c r="I4" t="n">
-        <v>1.136684382109876</v>
+        <v>1.188202669182166</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1470643215587129</v>
+        <v>0.1589602036687212</v>
       </c>
       <c r="M4" t="n">
-        <v>17.04193752165553</v>
+        <v>17.09905146802745</v>
       </c>
       <c r="N4" t="n">
-        <v>415.078152117085</v>
+        <v>417.9893635304391</v>
       </c>
       <c r="O4" t="n">
-        <v>20.37346686543763</v>
+        <v>20.44478817524014</v>
       </c>
       <c r="P4" t="n">
-        <v>353.7186875760065</v>
+        <v>353.2174646889583</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19050,28 +19224,28 @@
         <v>0.1241</v>
       </c>
       <c r="I5" t="n">
-        <v>1.154093398326458</v>
+        <v>1.209689605071084</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1533975433368362</v>
+        <v>0.165979592256597</v>
       </c>
       <c r="M5" t="n">
-        <v>16.81449839135058</v>
+        <v>16.89801686900866</v>
       </c>
       <c r="N5" t="n">
-        <v>405.7713199191408</v>
+        <v>409.9050736795899</v>
       </c>
       <c r="O5" t="n">
-        <v>20.1437662794012</v>
+        <v>20.24611255721922</v>
       </c>
       <c r="P5" t="n">
-        <v>360.9658698668651</v>
+        <v>360.4223119306914</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19128,28 +19302,28 @@
         <v>0.1753</v>
       </c>
       <c r="I6" t="n">
-        <v>1.154488302264585</v>
+        <v>1.20851902887</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1578232193941749</v>
+        <v>0.1703508698976633</v>
       </c>
       <c r="M6" t="n">
-        <v>17.10815501548773</v>
+        <v>17.19759208494391</v>
       </c>
       <c r="N6" t="n">
-        <v>399.4851897301738</v>
+        <v>403.4850697597894</v>
       </c>
       <c r="O6" t="n">
-        <v>19.98712559949964</v>
+        <v>20.0869377895136</v>
       </c>
       <c r="P6" t="n">
-        <v>368.2605838351865</v>
+        <v>367.7400716052807</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19206,28 +19380,28 @@
         <v>0.1309</v>
       </c>
       <c r="I7" t="n">
-        <v>1.124451365334394</v>
+        <v>1.172719046797382</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1426206483410721</v>
+        <v>0.1535921732837661</v>
       </c>
       <c r="M7" t="n">
-        <v>17.68612114613099</v>
+        <v>17.73687854813252</v>
       </c>
       <c r="N7" t="n">
-        <v>429.7550833152097</v>
+        <v>432.5739115701631</v>
       </c>
       <c r="O7" t="n">
-        <v>20.7305350465252</v>
+        <v>20.79841127514703</v>
       </c>
       <c r="P7" t="n">
-        <v>358.155040213766</v>
+        <v>357.6896297366487</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19284,28 +19458,28 @@
         <v>0.153</v>
       </c>
       <c r="I8" t="n">
-        <v>1.252545471967192</v>
+        <v>1.295141980233521</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.172290646772183</v>
+        <v>0.183625833086868</v>
       </c>
       <c r="M8" t="n">
-        <v>17.15012630924749</v>
+        <v>17.15143588680395</v>
       </c>
       <c r="N8" t="n">
-        <v>415.328280305263</v>
+        <v>415.4260571736814</v>
       </c>
       <c r="O8" t="n">
-        <v>20.37960451788167</v>
+        <v>20.38200326694315</v>
       </c>
       <c r="P8" t="n">
-        <v>350.0578856276055</v>
+        <v>349.6424936512713</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19362,28 +19536,28 @@
         <v>0.1297</v>
       </c>
       <c r="I9" t="n">
-        <v>1.066230985962858</v>
+        <v>1.105654258371539</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1267679288285163</v>
+        <v>0.1364176185565474</v>
       </c>
       <c r="M9" t="n">
-        <v>17.73905605131224</v>
+        <v>17.73683180021677</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7000394682996</v>
+        <v>442.1325464349594</v>
       </c>
       <c r="O9" t="n">
-        <v>21.04043819572918</v>
+        <v>21.02694810082907</v>
       </c>
       <c r="P9" t="n">
-        <v>348.1176178205141</v>
+        <v>347.7415061053753</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19440,28 +19614,28 @@
         <v>0.1535</v>
       </c>
       <c r="I10" t="n">
-        <v>1.168654508647557</v>
+        <v>1.194728517201998</v>
       </c>
       <c r="J10" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.149175997101023</v>
+        <v>0.156965229806775</v>
       </c>
       <c r="M10" t="n">
-        <v>17.88926129000539</v>
+        <v>17.82040148517625</v>
       </c>
       <c r="N10" t="n">
-        <v>445.8130782734582</v>
+        <v>443.1986023831768</v>
       </c>
       <c r="O10" t="n">
-        <v>21.11428611801636</v>
+        <v>21.05228259318159</v>
       </c>
       <c r="P10" t="n">
-        <v>339.8195489110915</v>
+        <v>339.5721040626032</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19518,28 +19692,28 @@
         <v>0.1799</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21095026540203</v>
+        <v>1.233194211126184</v>
       </c>
       <c r="J11" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.162963647061575</v>
+        <v>0.1701241872871708</v>
       </c>
       <c r="M11" t="n">
-        <v>17.47767020322708</v>
+        <v>17.39553718714493</v>
       </c>
       <c r="N11" t="n">
-        <v>435.0497939449553</v>
+        <v>432.4987657636786</v>
       </c>
       <c r="O11" t="n">
-        <v>20.85784729891738</v>
+        <v>20.79660466912036</v>
       </c>
       <c r="P11" t="n">
-        <v>338.0820658940991</v>
+        <v>337.8703974902777</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19596,28 +19770,28 @@
         <v>0.181</v>
       </c>
       <c r="I12" t="n">
-        <v>1.000944880068436</v>
+        <v>1.02490449753585</v>
       </c>
       <c r="J12" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1391271001572432</v>
+        <v>0.1467734843649257</v>
       </c>
       <c r="M12" t="n">
-        <v>16.26201029498642</v>
+        <v>16.21203389757372</v>
       </c>
       <c r="N12" t="n">
-        <v>363.5828956391676</v>
+        <v>361.5485019404467</v>
       </c>
       <c r="O12" t="n">
-        <v>19.06784979065987</v>
+        <v>19.01442878291238</v>
       </c>
       <c r="P12" t="n">
-        <v>350.8383967511843</v>
+        <v>350.6144555065126</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19674,28 +19848,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4584608526609662</v>
+        <v>0.4853025784243881</v>
       </c>
       <c r="J13" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04276225586567894</v>
+        <v>0.04817341709973977</v>
       </c>
       <c r="M13" t="n">
-        <v>13.75526657717709</v>
+        <v>13.74606413522226</v>
       </c>
       <c r="N13" t="n">
-        <v>275.3348642475112</v>
+        <v>274.8869565967491</v>
       </c>
       <c r="O13" t="n">
-        <v>16.59321741699033</v>
+        <v>16.57971521458524</v>
       </c>
       <c r="P13" t="n">
-        <v>366.8590811323949</v>
+        <v>366.6077063515455</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19733,7 +19907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N334"/>
+  <dimension ref="A1:N337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41073,6 +41247,222 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-44.40586181226951,167.91805936615518</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-44.405453727187485,167.91875163784113</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-44.40505963094578,167.91946042463712</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-44.404603352528575,167.9200536399876</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-44.40420097300796,167.9204588732559</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-44.40376658610195,167.92086354701604</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-44.40324631881275,167.9214061328133</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-44.402710864003524,167.92184707352152</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-44.402163521363875,167.92224305666062</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-44.401557650345964,167.92251891952088</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-44.40097234584197,167.9227810179089</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-44.40036041656097,167.92287742029566</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-44.405890483054264,167.9180932058127</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-44.40555485830906,167.91887100211872</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-44.40514495655354,167.91956113439034</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-44.40463931254377,167.92009896626382</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-44.404249376029966,167.92054890541763</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-44.40384933595437,167.921082290217</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-44.403287765407015,167.9215156941669</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-44.4027481355859,167.92195619061926</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-44.40220017653255,167.92236708548901</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-44.40161356450092,167.92271512756207</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-44.40098790512731,167.92284719673071</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-44.40039043319301,167.92303797009052</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-31 22:32:34+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-44.40591256915532,167.91811927370526</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-44.40549776200934,167.91880361173367</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-44.40513446233097,167.91954874804648</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-44.40462421488293,167.92007993620862</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-44.40421312298818,167.92048147283134</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-44.403775599333365,167.9208873727543</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-44.40324132892129,167.92139294239098</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-44.402720600918975,167.92187557948571</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-44.40220838026755,167.92239484426588</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-44.401619948807685,167.92273753079368</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-44.40099905851346,167.9228946359163</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-44.400383394276716,167.9230003209559</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -15289,7 +15289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18817,6 +18817,16 @@
       </c>
       <c r="B352" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0461/nzd0461.xlsx
+++ b/data/nzd0461/nzd0461.xlsx
@@ -18991,13 +18991,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.075</v>
+        <v>0.0621</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1467</v>
+        <v>0.1718</v>
       </c>
       <c r="I2" t="n">
         <v>0.9351269292504465</v>
@@ -19069,13 +19069,13 @@
         <v>0.9089505846700803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0558</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1523</v>
+        <v>0.1223</v>
       </c>
       <c r="I3" t="n">
         <v>0.9492004573391143</v>
@@ -19147,13 +19147,13 @@
         <v>0.8179011693395865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0757</v>
+        <v>0.0562</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1374</v>
+        <v>0.1103</v>
       </c>
       <c r="I4" t="n">
         <v>1.188202669182166</v>
@@ -19225,13 +19225,13 @@
         <v>0.7268517540096667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0618</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1241</v>
+        <v>0.1397</v>
       </c>
       <c r="I5" t="n">
         <v>1.209659871933914</v>
@@ -19303,13 +19303,13 @@
         <v>0.6367521628860697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1753</v>
+        <v>0.1443</v>
       </c>
       <c r="I6" t="n">
         <v>1.208547808517</v>
@@ -19381,13 +19381,13 @@
         <v>0.545702747557405</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0723</v>
+        <v>0.0876</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1309</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.172687758515669</v>
@@ -19459,13 +19459,13 @@
         <v>0.4546533322279744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0818</v>
+        <v>0.1121</v>
       </c>
       <c r="H8" t="n">
-        <v>0.153</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.295149804379587</v>
@@ -19537,13 +19537,13 @@
         <v>0.3636039168993097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0727</v>
+        <v>0.091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1297</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.10562959566604</v>
@@ -19615,13 +19615,13 @@
         <v>0.2726490624916044</v>
       </c>
       <c r="F10" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0795</v>
+        <v>0.1182</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1535</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>1.194741716584584</v>
@@ -19693,13 +19693,13 @@
         <v>0.1815996471631349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0788</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1799</v>
+        <v>0.1925</v>
       </c>
       <c r="I11" t="n">
         <v>1.233223164574688</v>
@@ -19771,13 +19771,13 @@
         <v>0.09055023183386507</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11</v>
+        <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0809</v>
+        <v>0.0641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.181</v>
+        <v>0.1752</v>
       </c>
       <c r="I12" t="n">
         <v>1.024942889529455</v>
@@ -19849,13 +19849,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0827</v>
+        <v>0.0593</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.1302</v>
       </c>
       <c r="I13" t="n">
         <v>0.4852612947102817</v>
